--- a/rq1_results_table_16052022.xlsx
+++ b/rq1_results_table_16052022.xlsx
@@ -136,8 +136,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -441,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,15 +492,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,7 +525,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -596,10 +594,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,7 +890,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,38 +922,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="J1" s="34" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="J1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="42"/>
     </row>
     <row r="2" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -962,50 +966,50 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="44" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="45"/>
     </row>
     <row r="3" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>0.70237593381224805</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>0.69353882631890895</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>0.71565626570423502</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="23">
         <v>0.61341107871720102</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
@@ -1044,29 +1048,29 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>0.81079320325099002</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>0.80570740294635401</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0.82975113122171895</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>0.83494832041343603</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="11">
@@ -1075,7 +1079,7 @@
       <c r="M4" s="4">
         <v>5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="51">
         <f>C3</f>
         <v>0.70237593381224805</v>
       </c>
@@ -1085,7 +1089,7 @@
       <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="52">
         <f>E3</f>
         <v>0.71565626570423502</v>
       </c>
@@ -1095,7 +1099,7 @@
       <c r="S4" s="4">
         <v>4</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="51">
         <f>D3</f>
         <v>0.69353882631890895</v>
       </c>
@@ -1105,33 +1109,33 @@
       <c r="V4" s="4">
         <v>20</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="53">
         <f>F3</f>
         <v>0.61341107871720102</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>0.732531613388264</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>0.75376543675001995</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>0.74241166034293604</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>0.77248803237045105</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="20" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="11">
@@ -1140,7 +1144,7 @@
       <c r="M5" s="4">
         <v>6</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="51">
         <f t="shared" ref="N5:N6" si="0">C4</f>
         <v>0.81079320325099002</v>
       </c>
@@ -1150,7 +1154,7 @@
       <c r="P5" s="4">
         <v>2</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="51">
         <f>E4</f>
         <v>0.82975113122171895</v>
       </c>
@@ -1160,7 +1164,7 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="51">
         <f>D4</f>
         <v>0.80570740294635401</v>
       </c>
@@ -1170,16 +1174,16 @@
       <c r="V5" s="4">
         <v>24</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="54">
         <f>F4</f>
         <v>0.83494832041343603</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="14">
         <f t="shared" ref="C6:E6" si="1">IF(AVERAGE(C10:C12)&lt;=2,1,2)</f>
         <v>2</v>
@@ -1196,8 +1200,8 @@
         <f>IF(AVERAGE(F10:F12)&lt;=2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="20" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="11">
@@ -1206,7 +1210,7 @@
       <c r="M6" s="4">
         <v>34</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="51">
         <f t="shared" si="0"/>
         <v>0.732531613388264</v>
       </c>
@@ -1216,7 +1220,7 @@
       <c r="P6" s="4">
         <v>98</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="51">
         <f>E5</f>
         <v>0.74241166034293604</v>
       </c>
@@ -1226,7 +1230,7 @@
       <c r="S6" s="4">
         <v>5</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="51">
         <f>D5</f>
         <v>0.75376543675001995</v>
       </c>
@@ -1236,56 +1240,56 @@
       <c r="V6" s="4">
         <v>189</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="54">
         <f>F5</f>
         <v>0.77248803237045105</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="47">
+      <c r="K7" s="39"/>
+      <c r="L7" s="46">
         <f>C6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31">
         <f>E6</f>
         <v>1</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="31">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="30">
         <f>D6</f>
         <v>2</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32">
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31">
         <f>F6</f>
         <v>1</v>
       </c>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1298,47 +1302,47 @@
       <c r="F9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="28">
         <f>M4+L4</f>
         <v>116</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52" t="s">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="28">
         <f>P4+O4</f>
         <v>269</v>
       </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52" t="s">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="28">
         <f>S4+R4</f>
         <v>2260</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="52">
+      <c r="V9" s="28">
         <f>V4+U4</f>
         <v>7234</v>
       </c>
-      <c r="W9" s="52" t="s">
+      <c r="W9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="29">
         <f>V9/M9</f>
         <v>62.362068965517238</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1360,47 +1364,47 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="28">
         <f t="shared" ref="M10:M11" si="3">M5+L5</f>
         <v>130</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52" t="s">
+      <c r="N10" s="28"/>
+      <c r="O10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="28">
         <f t="shared" ref="P10:P11" si="4">P5+O5</f>
         <v>266</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="28">
         <f t="shared" ref="S10:S11" si="5">S5+R5</f>
         <v>1215</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52" t="s">
+      <c r="T10" s="28"/>
+      <c r="U10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="52">
+      <c r="V10" s="28">
         <f t="shared" ref="V10:V11" si="6">V5+U5</f>
         <v>9925</v>
       </c>
-      <c r="W10" s="52" t="s">
+      <c r="W10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="53">
+      <c r="X10" s="29">
         <f>V10/M10</f>
         <v>76.34615384615384</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1420,47 +1424,47 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="28">
         <f t="shared" si="3"/>
         <v>273</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52" t="s">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="28">
         <f t="shared" si="4"/>
         <v>2564</v>
       </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52" t="s">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="28">
         <f t="shared" si="5"/>
         <v>1353</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52" t="s">
+      <c r="T11" s="28"/>
+      <c r="U11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="52">
+      <c r="V11" s="28">
         <f t="shared" si="6"/>
         <v>28766</v>
       </c>
-      <c r="W11" s="52" t="s">
+      <c r="W11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="53">
+      <c r="X11" s="29">
         <f>V11/M11</f>
         <v>105.36996336996337</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1480,10 +1484,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="W12" s="52" t="s">
+      <c r="W12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="X12" s="53">
+      <c r="X12" s="29">
         <f>AVERAGE(X9:X11)</f>
         <v>81.35939539387816</v>
       </c>

--- a/rq1_results_table_16052022.xlsx
+++ b/rq1_results_table_16052022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Random Forest</t>
   </si>
@@ -90,9 +90,6 @@
     <t>HRA (trials = 25)</t>
   </si>
   <si>
-    <t>Average diff</t>
-  </si>
-  <si>
     <t>RF_sum_1 (s)</t>
   </si>
   <si>
@@ -130,6 +127,15 @@
   </si>
   <si>
     <t>RF_TABNET_diff (x)</t>
+  </si>
+  <si>
+    <t>RF_TABNET_diff (s)</t>
+  </si>
+  <si>
+    <t>Average diff (x)</t>
+  </si>
+  <si>
+    <t>Average diff (s)</t>
   </si>
 </sst>
 </file>
@@ -531,6 +537,18 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,18 +610,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,42 +924,45 @@
     <col min="21" max="21" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="13"/>
+    <col min="24" max="24" width="8.88671875" style="13"/>
+    <col min="25" max="25" width="18.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:26" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="J1" s="33" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="J1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="40" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="42"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
     </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+    <row r="2" spans="1:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -966,31 +975,31 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="43" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
     </row>
-    <row r="3" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:26" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1008,8 +1017,8 @@
       <c r="F3" s="23">
         <v>0.61341107871720102</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
@@ -1047,8 +1056,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1076,7 @@
       <c r="G4" s="13">
         <v>0</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="41" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="18" t="s">
@@ -1079,7 +1088,7 @@
       <c r="M4" s="4">
         <v>5</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="30">
         <f>C3</f>
         <v>0.70237593381224805</v>
       </c>
@@ -1089,7 +1098,7 @@
       <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="31">
         <f>E3</f>
         <v>0.71565626570423502</v>
       </c>
@@ -1099,7 +1108,7 @@
       <c r="S4" s="4">
         <v>4</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="30">
         <f>D3</f>
         <v>0.69353882631890895</v>
       </c>
@@ -1109,13 +1118,13 @@
       <c r="V4" s="4">
         <v>20</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="32">
         <f>F3</f>
         <v>0.61341107871720102</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1143,7 @@
       <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="18" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1153,7 @@
       <c r="M5" s="4">
         <v>6</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="30">
         <f t="shared" ref="N5:N6" si="0">C4</f>
         <v>0.81079320325099002</v>
       </c>
@@ -1154,7 +1163,7 @@
       <c r="P5" s="4">
         <v>2</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="30">
         <f>E4</f>
         <v>0.82975113122171895</v>
       </c>
@@ -1164,7 +1173,7 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="30">
         <f>D4</f>
         <v>0.80570740294635401</v>
       </c>
@@ -1174,16 +1183,16 @@
       <c r="V5" s="4">
         <v>24</v>
       </c>
-      <c r="W5" s="54">
+      <c r="W5" s="33">
         <f>F4</f>
         <v>0.83494832041343603</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="14">
         <f t="shared" ref="C6:E6" si="1">IF(AVERAGE(C10:C12)&lt;=2,1,2)</f>
         <v>2</v>
@@ -1200,7 +1209,7 @@
         <f>IF(AVERAGE(F10:F12)&lt;=2,1,2)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="18" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1219,7 @@
       <c r="M6" s="4">
         <v>34</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
         <v>0.732531613388264</v>
       </c>
@@ -1220,7 +1229,7 @@
       <c r="P6" s="4">
         <v>98</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="30">
         <f>E5</f>
         <v>0.74241166034293604</v>
       </c>
@@ -1230,7 +1239,7 @@
       <c r="S6" s="4">
         <v>5</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="30">
         <f>D5</f>
         <v>0.75376543675001995</v>
       </c>
@@ -1240,56 +1249,56 @@
       <c r="V6" s="4">
         <v>189</v>
       </c>
-      <c r="W6" s="54">
+      <c r="W6" s="33">
         <f>F5</f>
         <v>0.77248803237045105</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J7" s="38" t="s">
+    <row r="7" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="46">
+      <c r="K7" s="43"/>
+      <c r="L7" s="50">
         <f>C6</f>
         <v>2</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35">
         <f>E6</f>
         <v>1</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="30">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="34">
         <f>D6</f>
         <v>2</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31">
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35">
         <f>F6</f>
         <v>1</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
     </row>
-    <row r="8" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:26" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
     </row>
-    <row r="9" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+    <row r="9" spans="1:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="28">
         <f>M4+L4</f>
@@ -1311,7 +1320,7 @@
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" s="28">
         <f>P4+O4</f>
@@ -1319,7 +1328,7 @@
       </c>
       <c r="Q9" s="28"/>
       <c r="R9" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="28">
         <f>S4+R4</f>
@@ -1327,22 +1336,29 @@
       </c>
       <c r="T9" s="28"/>
       <c r="U9" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V9" s="28">
         <f>V4+U4</f>
         <v>7234</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X9" s="29">
         <f>V9/M9</f>
         <v>62.362068965517238</v>
       </c>
+      <c r="Y9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="28">
+        <f>V9-M9</f>
+        <v>7118</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:26" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1365,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" ref="M10:M11" si="3">M5+L5</f>
@@ -1373,7 +1389,7 @@
       </c>
       <c r="N10" s="28"/>
       <c r="O10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="28">
         <f t="shared" ref="P10:P11" si="4">P5+O5</f>
@@ -1381,7 +1397,7 @@
       </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S10" s="28">
         <f t="shared" ref="S10:S11" si="5">S5+R5</f>
@@ -1389,43 +1405,50 @@
       </c>
       <c r="T10" s="28"/>
       <c r="U10" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10" s="28">
         <f t="shared" ref="V10:V11" si="6">V5+U5</f>
         <v>9925</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X10" s="29">
         <f>V10/M10</f>
         <v>76.34615384615384</v>
       </c>
+      <c r="Y10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" ref="Z10:Z11" si="7">V10-M10</f>
+        <v>9795</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" ref="C11:F11" si="7">_xlfn.RANK.EQ(C4,$C4:$F4)</f>
+        <f t="shared" ref="C11:F11" si="8">_xlfn.RANK.EQ(C4,$C4:$F4)</f>
         <v>3</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="28">
         <f t="shared" si="3"/>
@@ -1433,7 +1456,7 @@
       </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="28">
         <f t="shared" si="4"/>
@@ -1441,7 +1464,7 @@
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="28">
         <f t="shared" si="5"/>
@@ -1449,52 +1472,66 @@
       </c>
       <c r="T11" s="28"/>
       <c r="U11" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V11" s="28">
         <f t="shared" si="6"/>
         <v>28766</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X11" s="29">
         <f>V11/M11</f>
         <v>105.36996336996337</v>
       </c>
+      <c r="Y11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" s="28">
+        <f t="shared" si="7"/>
+        <v>28493</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" ref="C12:F12" si="8">_xlfn.RANK.EQ(C5,$C5:$F5)</f>
+        <f t="shared" ref="C12:F12" si="9">_xlfn.RANK.EQ(C5,$C5:$F5)</f>
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="X12" s="29">
         <f>AVERAGE(X9:X11)</f>
         <v>81.35939539387816</v>
       </c>
+      <c r="Y12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="29">
+        <f>AVERAGE(Z9:Z11)</f>
+        <v>15135.333333333334</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G13" s="13">
-        <f t="shared" ref="G13" si="9">SUM(G10:G12)</f>
+        <f t="shared" ref="G13" si="10">SUM(G10:G12)</f>
         <v>0</v>
       </c>
     </row>
